--- a/cleaned last season/lastseasoniplbowlingg.xlsx
+++ b/cleaned last season/lastseasoniplbowlingg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/Dataset_Final/cleaned last season/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/cleaned last season/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D009430F-CAEF-7E40-8F2D-F985BED173B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C85A444-E0E4-D743-BAB9-8C9EC03AD1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="900" windowWidth="14480" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13940" yWindow="3460" windowWidth="14480" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="89">
   <si>
     <t>Player</t>
   </si>
@@ -284,13 +284,16 @@
   </si>
   <si>
     <t>RS Hangargekar</t>
+  </si>
+  <si>
+    <t>PW Hasaranga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +312,13 @@
       <color rgb="FF222222"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -352,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -365,6 +375,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="N83" sqref="N83"/>
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3944,6 +3963,50 @@
         <v>7</v>
       </c>
     </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" s="7">
+        <v>8</v>
+      </c>
+      <c r="C75" s="7">
+        <v>8</v>
+      </c>
+      <c r="D75" s="7">
+        <v>29</v>
+      </c>
+      <c r="E75" s="7">
+        <v>0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>258</v>
+      </c>
+      <c r="G75" s="7">
+        <v>9</v>
+      </c>
+      <c r="H75" s="7">
+        <v>28.66</v>
+      </c>
+      <c r="I75" s="7">
+        <v>8.89</v>
+      </c>
+      <c r="J75" s="7">
+        <v>19.3</v>
+      </c>
+      <c r="K75" s="7">
+        <v>0</v>
+      </c>
+      <c r="L75" s="7">
+        <v>0</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N75" s="7">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N71">
     <sortCondition ref="A1:A71"/>
